--- a/tietokanta/feats/excel/feats_general.xlsx
+++ b/tietokanta/feats/excel/feats_general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325A0A05-1673-4F25-AEFF-E8B1428DA4EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084010B4-2C2C-436B-928A-38EA4411DCE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32175" yWindow="1815" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="190">
   <si>
     <t>name</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Legendary Medic</t>
   </si>
   <si>
-    <t>Benefits</t>
-  </si>
-  <si>
     <t>Natural Medicine</t>
   </si>
   <si>
@@ -606,6 +603,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
     <tableColumn id="3" xr3:uid="{1B6068B0-719B-41B1-8DE9-90C31C15CD24}" uniqueName="prerequisite" name="prerequisite" dataDxfId="0">
       <xmlColumnPr mapId="2" xpath="/Feats/feat/prerequisite" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0666AA45-2A9A-4E81-AC41-6682CA5943EF}" uniqueName="description" name="Benefits">
+    <tableColumn id="4" xr3:uid="{0666AA45-2A9A-4E81-AC41-6682CA5943EF}" uniqueName="description" name="description">
       <xmlColumnPr mapId="2" xpath="/Feats/feat/description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -986,7 +986,7 @@
   <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,10 +1007,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1021,10 +1021,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1063,10 +1063,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1077,10 +1077,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1108,7 +1108,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1119,10 +1119,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,10 +1133,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1161,10 +1161,10 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1175,10 +1175,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1189,10 +1189,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1203,10 +1203,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1217,10 +1217,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1231,10 +1231,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1259,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1273,10 +1273,10 @@
         <v>1</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1287,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1301,10 +1301,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1315,9 +1315,11 @@
         <v>1</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
@@ -1327,10 +1329,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1341,10 +1343,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -1355,10 +1357,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1369,10 +1371,10 @@
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1383,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1397,10 +1399,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,10 +1413,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1425,10 +1427,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1439,10 +1441,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1453,10 +1455,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1467,10 +1469,10 @@
         <v>15</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1481,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1495,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1509,10 +1511,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1523,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1537,10 +1539,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1551,10 +1553,10 @@
         <v>2</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1565,10 +1567,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1579,10 +1581,10 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1593,10 +1595,10 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1607,10 +1609,10 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1621,10 +1623,10 @@
         <v>15</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1635,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1649,10 +1651,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1663,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1677,10 +1679,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1691,24 +1693,24 @@
         <v>2</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" s="2">
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1719,10 +1721,10 @@
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1733,10 +1735,10 @@
         <v>15</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1747,10 +1749,10 @@
         <v>1</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1761,10 +1763,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -1775,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -1789,10 +1791,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,10 +1805,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,10 +1819,10 @@
         <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1831,10 +1833,10 @@
         <v>1</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -1845,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -1859,10 +1861,10 @@
         <v>1</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,10 +1889,10 @@
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,10 +1903,10 @@
         <v>15</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -1915,10 +1917,10 @@
         <v>1</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -1929,10 +1931,10 @@
         <v>1</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -1943,10 +1945,10 @@
         <v>1</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,10 +1959,10 @@
         <v>2</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -1971,10 +1973,10 @@
         <v>2</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -1985,10 +1987,10 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -1999,10 +2001,10 @@
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2013,10 +2015,10 @@
         <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2027,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2041,10 +2043,10 @@
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2055,10 +2057,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2069,10 +2071,10 @@
         <v>15</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2083,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,10 +2099,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2111,10 +2113,10 @@
         <v>2</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2125,10 +2127,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2139,514 +2141,514 @@
         <v>15</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="2">
         <v>1</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="2">
         <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="2">
         <v>1</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" s="2">
         <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" s="2">
         <v>1</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" s="2">
         <v>1</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" s="2">
         <v>15</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" s="3">
         <v>15</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" s="2">
         <v>1</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2">
         <v>1</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2">
         <v>1</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" s="2">
         <v>1</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2">
         <v>2</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" s="2">
         <v>15</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" s="2">
         <v>15</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" s="2">
         <v>1</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" s="2">
         <v>1</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" s="2">
         <v>2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="2">
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" s="2">
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" s="2">
         <v>15</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" s="2">
         <v>1</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2">
         <v>1</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" s="2">
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2">
         <v>15</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" s="2">
         <v>1</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2">
         <v>1</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="2">
         <v>2</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="2">
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="2">
         <v>15</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
